--- a/finetuning/it_datasets/it_dataset/it_midoun_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_midoun_dataset.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a Cafe, check out Cafe Virage located at Cafe Virage, 4165, Midoun, Djerba Midun. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Virage/data=!4m7!3m6!1s0x13aabda0006d4997:0x44944ef6b94f7dd5!8m2!3d33.7975247!4d10.9579051!16s%2Fg%2F11c7466gvf!19sChIJl0ltAKC9qhMR1X1PufZOlEQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Virage is a highly-rated cafe located in Midoun, Tunisia, with a convenient location and extended opening hours from 7:00 AM to midnight. Although it lacks a website and phone number, it boasts a 4.3-star rating based on 10 reviews. The cafe's main category is Cafe, showcasing its expertise in coffee and other beverages.</t>
         </is>
       </c>
     </row>
@@ -753,9 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Cafe La Jeunesse located at RX4R+XPP Cafe La Jeunesse, Midoun, Djerba Midun. 
-This top-rated destination is a great Cafe. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+La+Jeunesse/data=!4m7!3m6!1s0x13aa97dacc49aa2d:0x44b7fdcab2c5178c!8m2!3d33.8074521!4d10.9918403!16s%2Fg%2F11g816qpf1!19sChIJLapJzNqXqhMRjBfFssr9t0Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 733 307.</t>
+          <t>Cafe La Jeunesse is a well-rated (4.4/5) cafe located at (33.80813, 10.99228) in Midoun, offering a variety of services, including cafe services.</t>
         </is>
       </c>
     </row>
@@ -858,7 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated spot to enjoy some coffee, look no further than Daily dose coffee located at Rte de phare, 1km midoun, 4116. This cafe is perfect for coffee enthusiasts and offers a range of coffee-related treats to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on none. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at none or call them at 56 029 645.</t>
+          <t>Daily Dose Coffe is a coffee shop located in midoun at the coordinates (33.8099042, 10.9723646). The coffee shop is open from 7:00 AM to 11:00 PM and it offers a wide variety of coffees, teas, and pastries. The coffee shop also has a friendly staff and a cozy atmosphere, making it a great place to relax and enjoy a cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -961,7 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Midoun and looking for a cozy spot to relax and savor some delicious coffee, head over to Moods Coffee Shop at Moods Coffee Shop, Midoun, Djerba Midun. This top-rated cafe offers a warm and inviting atmosphere perfect for coffee lovers. With a rating of 4.5, it's a must-visit spot. Moods Coffee Shop is open daily from 4:30 AM to 11:00 PM. For more information, you can call them at 55 896 485.</t>
+          <t>Moods Coffee Shop is a highly-rated café located in Midoun, Djerba Midun. Open from 4:30am to 11pm, it is renowned for its coffee and service, with reviews praising its cozy atmosphere. Located at (33.80813, 10.99228), Moods Coffee Shop is easily accessible and offers a welcoming space for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1054,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in Midoun and looking for a top-rated cafe, check out Djerba Midoun, Tunisie located at Djerba Midoun, Tunisie, Midoun Djerba, 4145. This cafe is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 33.7177752, 10.9382715. For more details, visit their website at https://www.google.com/maps/place/Djerba+Midoun,+Tunisie/data=!4m7!3m6!1s0x13aabd71ae2c08a1:0xf5e2662580216b02!8m2!3d33.8160867!4d10.9797412!16s%2Fg%2F11szpvzq9c!19sChIJoQgsrnG9qhMRAmshgCVm4vU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Djerba Midoun is located in Tunisia, in the city of Midoun. This cafe has a rating of 4.8 stars.</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1153,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a great cafe, check out Salon De The Virage located at 4116 zone touristique midoun, Houmt Souk. This top-rated destination is perfect for Cafe lovers and has a rating of 4.8. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 33.87576, 10.85745. For more details, visit their website at .</t>
+          <t>Nestled in the heart of the tourist zone of Midoun, Salon De The Virage is a charming cafe located at the coordinates (33.87576, 10.85745). Open daily from 6 AM to 1 AM, the cafe boasts a cozy ambiance and a menu featuring delectable treats.</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1256,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in Midoun, check out Cafe les arcades mqh~ lqws at 4116 Midoun. This 5.0-rated cafe is a great spot for coffee and more. It's open 24/7, so you can visit anytime. For more info, call them at 22 476 009.</t>
+          <t>Cafe les arcades mqh~ lqws is a 5-star rated cafe located in midoun. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 4116 Midoun, Djerba Midun and can be contacted at 22 476 009.</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1363,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Cafe, check out Cafe Bouchnak located at RX7P+66G Cafe Bouchnak, Midoun, Djerba Midun. This local favorite offers a range of Cafe options to choose from and has a rating of 4.6. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.facebook.com/bouchnakcafe/%3Ffref%3Dts or call them at 75 732 410.</t>
+          <t>Cafe Bouchnak is a cafe located in Midoun, Djerba Midun, Tunisia. It is open from 06:00-00:00 and closed on Sundays. Cafe Bouchnak has a rating of 4.6 out of 5 stars on Google and is known for its great coffee and friendly staff.</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1466,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Cafe, check out Twist cafe located at Twist cafe, Midoun, Djerba Midun. This must-visit spot offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but it's always a good idea to call ahead at 20 371 605. To get there, use these GPS coordinates: 33.80813, 10.99228.</t>
+          <t>"Twist Cafe" is a highly-rated 24-hour cafe located at Twist cafe, Midoun, Djerba Midun (33.80813, 10.99228), offering a cozy ambiance and a menu that caters to various tastes. Its 5.0 rating, based on numerous positive customer reviews, speaks volumes about the cafe's exceptional quality and service. Whether you're looking for a relaxing cup of coffee or a delightful meal, "Twist Cafe" is a must-visit destination for those seeking a delightful culinary experience.</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1569,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated cafe, check out CAFE ROTANA located at RX6P+JX6 CAFE ROTANA, Midoun, Djerba Midun. With a rating of 5.0, it's a must-visit spot for cafe enthusiasts. CAFE ROTANA opens during these hours: 06:00-00:30 and is closed on none of the days of the week. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.google.com/maps/place/CAFE+ROTANA/data=!4m7!3m6!1s0x13aa97dc0a3aa375:0xcb27b6cfc4fb22e!8m2!3d33.8115274!4d10.9873833!16s%2Fg%2F11c5653yw3!19sChIJdaM6CtyXqhMRLrJP_Gx7sgw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 732 585.</t>
+          <t>CAFE ROTANA is located in midoun, Tunisia, at the coordinates (33.80813, 10.99228). The cafe has a rating of 5.0 and is open from 6:00 AM to 12:30 AM.</t>
         </is>
       </c>
     </row>
@@ -1666,9 +1664,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Riadh located at Riadh, Midoun Center, Midoun, Djerba Midun. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Riadh/data=!4m7!3m6!1s0x13aa975adf7e309d:0x663c99926e0012a!8m2!3d33.8086534!4d10.9908569!16s%2Fg%2F11kjy3n77p!19sChIJnTB-31qXqhMRKgHgJpnJYwY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Riadh is a cafe situated in the heart of midoun, Tunisia. The cafe is a popular spot for locals and tourists alike, and offers a variety of coffee and tea drinks, as well as a selection of snacks. The cafe is located at 33.80813, 10.99228.</t>
         </is>
       </c>
     </row>
@@ -1767,9 +1763,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: nan, but closed on: nan. To get there, use these GPS coordinates: 33.8815674, 10.8566779. For more details, visit their website at nan or call them at 21 488 464.</t>
+          <t>Dar Amphora Menzel is a charming guest house located in Midoun, a city on the island of Djerba in Tunisia. This 4.6-star-rated establishment offers a relaxing stay in a warm and friendly atmosphere. The guest house is conveniently located near the beach and various shops and restaurants, making it an ideal base for exploring the island and enjoying its beautiful scenery.</t>
         </is>
       </c>
     </row>
@@ -1868,8 +1862,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Chambre d'hotes, check out Aljanna located at R22R+WJF Aljanna, Djerba Tezdaine, Djerba Midoun 4116. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8038814, 11.0400685. For more details, call them at 97 556 810.</t>
+          <t>Aljanna offers a 5-star bed and breakfast experience in Djerba Tezdaine, Djerba Midoun 4116. Located at the coordinates (33.8038814, 11.0400685), it welcomes guests looking for a peaceful retreat.</t>
         </is>
       </c>
     </row>
@@ -1968,9 +1961,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from.
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.8815674, 10.8566779. For more details, visit their website or call them at 21 488 464.</t>
+          <t>Dar Amphora Menzel, located in Midoun (33.8815674, 10.8566779), is a highly-rated guest house with a 4.6 rating. Run by Dar Amphora Menzel (owner), it offers a serene stay with its cozy accommodations and attentive service. This guesthouse is your go-to destination for those seeking a haven amidst the heart of midoun.</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2064,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Maison d'hotes, check out Dar El Kebir located at Route touristique, Midoun Djerba 4116. This place is perfect for Maison d'hotes lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at http://www.darelkebir.com/ or call them at 25 442 214.</t>
+          <t>Dar El Kebir is a 4.8-rated guest house located in Midoun, Djerba. It offers 6 rooms, a swimming pool, a terrace, and a garden. The guest house is located close to the beach and offers a variety of activities, such as swimming, fishing, and hiking.</t>
         </is>
       </c>
     </row>
@@ -2168,9 +2159,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for somewhere to stay, check out Calimer Yati Beach located at Calimer Yati Beach, 4116 Midoun, Djerba Midun. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Calimer+Yati+Beach/data=!4m10!3m9!1s0x13aa97688f83a98f:0xa4c7489af5e88b16!5m2!4m1!1i2!8m2!3d33.8075016!4d10.9933951!16s%2Fg%2F11h5s3_swk!19sChIJj6mDj2iXqhMRFovo9ZpIx6Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled on the beautiful shores of Midoun, Djerba, Calimer Yati Beach is a 5-star haven offering unforgettable vacations. This luxurious resort boasts a stunning beachfront location, just steps away from the crystal-clear waters. Guests can indulge in a range of amenities, including a private beach, swimming pools, a spa, dining options, and comfortable accommodations. Its convenient location allows for easy access to local attractions and cultural experiences, making it an ideal destination for those seeking relaxation, adventure, and cultural immersion.</t>
         </is>
       </c>
     </row>
@@ -2269,9 +2258,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.8815674, 10.8566779. For more details, call them at 21 488 464.</t>
+          <t>Dar Amphora Menzel is a guest house located in Midoun, Tunisia, offering a 4.6-star experience. It features a convenient location at Dar Amphora Menzel, Bp 31, with coordinates (33.8815674, 10.8566779). The guest house's main category is listed as "Maison d'hotes," indicating its focus on providing a comfortable and welcoming stay for guests.</t>
         </is>
       </c>
     </row>
@@ -2378,11 +2365,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Club Med Djerba located at Club Med Djerba, BP 160, Midoun 4116. 
-This top-rated destination is perfect for Complexe hotelier lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.8099042, 10.9723646. 
-For more details, visit their website at http://www.clubmed.com/DDOC or call them at 75 750 501.</t>
+          <t>Club Med Djerba is a 4.1-star resort in Midoun, Tunisia. The resort features chic rooms and bungalows, a gourmet restaurant, three swimming pools, and a spa. Guests can enjoy a variety of activities, including catamaran sailing, windsurfing, and tennis. The resort also offers a wide range of entertainment options, including live shows, discos, and theme nights. Club Med Djerba is located on the beachfront, offering stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2460,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Hotel Meridiana located at Hotel Meridiana, Djerba Midoun. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 33.82835, 11.04065. For more details, visit their website at https://www.google.com/maps/place/H%C3%B4tel+Meridiana/data=!4m10!3m9!1s0x13aa976a88ff8fe5:0x20f370b9004edd2b!5m2!4m1!1i2!8m2!3d33.7754717!4d10.9580947!16s%2Fg%2F11c0tb3c80!19sChIJ5Y__iGqXqhMRK91OALlw8yA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>If you are seeking a comfortable and conveniently located hotel in Midoun, look no further than Hotel Meridiana. The hotel has received a 4.2 stars rating with 17 reviews, suggesting that it offers a pleasant stay for its guests. Situated at (33.82835, 11.04065), the hotel is easy to find and accessible. Although detailed information about the hotel's amenities and services is not provided, its location and positive reviews make it a solid option for travelers seeking a comfortable and convenient stay in Midoun.</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2559,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you find yourself in midoun seeking a unique experience, make sure to visit Midounia located at RX5V+292 Midounia, Midoun. This highly-rated destination is known for its excellent Chambre d'hotes services and offers a 5.0 rating based on 4 reviews. To contact them, feel free to call 54 626 382. For more details, visit their website https://www.google.com/maps/place/Midounia/data=!4m10!3m9!1s0x13aa97c53d466fc5:0xb1c9ef885d295221!5m2!4m1!1i2!8m2!3d33.8075016!4d10.9933951!16s%2Fg%2F11fd423671!19sChIJxW9GPcWXqhMRIVIpXYjvybE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of Midoun, Djerba Midun, Midounia offers charming bed and breakfast accommodations with a 5-star rating. Situated at coordinates (33.80813, 10.99228), this establishment boasts a prime location, making it an ideal base for exploring the city and its surroundings.</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2654,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated hotel, check out Calimer Yati Beach located at Calimer Yati Beach, 4116 Midoun, Djerba Midun. This 5.0-rated destination is perfect for Hotel lovers. To get there, use these GPS coordinates: 33.81005, 10.98997. For more details, visit their website at https://www.google.com/maps/place/Calimer+Yati+Beach/data=!4m10!3m9!1s0x13aa97688f83a98f:0xa4c7489af5e88b16!5m2!4m1!1i2!8m2!3d33.8075016!4d10.9933951!16s%2Fg%2F11h5s3_swk!19sChIJj6mDj2iXqhMRFovo9ZpIx6Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Escape to the serene sanctuary of Calimer Yati Beach, a 5-star hotel situated at the heart of Midoun in Djerba Midun. Located at (33.81005, 10.98997), the hotel offers an idyllic beachfront retreat with breathtaking views of the Mediterranean Sea. As one of the top-rated hotels in the area, Calimer Yati Beach boasts exceptional amenities and services that cater to every need.</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2753,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Maison d'hotes, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. This destination is perfect for Maison d'hotes lovers and offers a rating of 4.6 making it a must-visit spot. You can reach them at 21 488 464 for more details or visit their website at https://www.google.com/maps/place/Dar+Amphora+Menzel/data=!4m10!3m9!1s0x13aa98022b4917dd:0xc161007de2542ab!5m2!4m1!1i2!8m2!3d33.8416313!4d10.9871218!16s%2Fg%2F1tk0svtb!19sChIJ3RdJKwKYqhMRq0Il3gcQFgw?authuser=0&amp;hl=fr&amp;rclk=1 to get more details.</t>
+          <t>Dar Amphora Menzel is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 33.8815674, 10.8566779). It offers a serene retreat with 12 cozy rooms and features amenities such as a swimming pool and a traditional hammam (steam bath). The guesthouse is conveniently situated near various attractions and offers easy access to the city's vibrant culture and stunning natural surroundings.</t>
         </is>
       </c>
     </row>
@@ -2869,9 +2852,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a unique place to stay, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.8815674, 10.8566779. For more details, visit their website at nan or call them at 21 488 464.</t>
+          <t>Dar Amphora Menzel is a charming guesthouse located in Midoun on the island of Djerba in Tunisia. It is rated 4.6 stars and offers a memorable stay for its guests. With 12 reviews, it is a popular choice for travelers seeking a comfortable and authentic experience.</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2951,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Dar Amphora Menzel located at Dar Amphora Menzel, Bp 31, Midoun 4190. This top-rated destination is perfect for Maison d'hotes lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.8815674, 10.8566779. For more details, visit their website at https://www.google.com/maps/place/Dar+Amphora+Menzel/data=!4m10!3m9!1s0x13aa98022b4917dd:0xc161007de2542ab!5m2!4m1!1i2!8m2!3d33.8416313!4d10.9871218!16s%2Fg%2F1tk0svtb!19sChIJ3RdJKwKYqhMRq0Il3gcQFgw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 488 464.</t>
+          <t>Dar Amphora Menzel is a charming guest house located in Midoun, Tunisia, offering a tranquil retreat for travelers. Situated near the stunning beaches of Djerba, the guest house boasts a prime location with easy access to the island's attractions. With its cozy accommodations, warm hospitality, and convenient amenities, Dar Amphora Menzel is an ideal base for exploring the wonders of Djerba and enjoying a relaxing and memorable stay.</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3054,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a relaxing getaway, check out Iberostar Mehari Djerba located at Route Touristique Midoun Djerba, Djerba 4116. This top-rated hotel is perfect for vacationers and offers a range of amenities and activities to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at https://www.iberostar.com/en/hotels/djerba/iberostar-mehari-djerba/%3Futm_source%3Dgoogle%26utm_medium%3Dorganic%26utm_campaign%3DIBSVOL_EMEA_SEOLOC_GMB_NA_EN_ESP_PENAND_MLG_MAP_PULL_NA_NA_NA_NA_NA or call them at 75 745 240.</t>
+          <t>Iberostar Mehari Djerba is a 4.7 stars hotel located in midoun, Tunisia. The hotel offers a wide range of services and amenities to its guests, including an outdoor pool, a spa, a fitness center, and a kids' club. The hotel is also conveniently located near the beach, making it a great choice for those who want to enjoy some sun and sand during their stay.</t>
         </is>
       </c>
     </row>
@@ -3180,9 +3161,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a restful stay, check out Seabel Rym Beach Djerba located at Seabel Rym Beach Djerba, BP 155, Midoun, Djerba Midun 4116. 
-This top-rated Hotel is perfect for travelers and offers a range of amenities to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.82753, 11.04639. For more details, visit their website at https://www.seabelhotels.com/fr/seabel-rym-beach/accueil/ or call them at 75 745 614.</t>
+          <t>Seabel Rym Beach Djerba is a welcoming seaside hotel in Midoun. It features bright rooms, two restaurants, a spa, an indoor pool, and outdoor swimming pools. With 4.4/5 stars and over 2600 reviews, it's a popular choice. Located at (33.82753, 11.04639), it's close to many attractions.</t>
         </is>
       </c>
     </row>
@@ -3289,10 +3268,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a place to relax, check out Fiesta Beach Djerba located at Fiesta Beach Djerba, Zone Touristique Midoun Midoun Djerba, 4116. 
-This top-rated destination is perfect for hotel lovers and offers a range of hotel to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: (33.8099042, 10.9723646). For more details, visit their website 
-at https://www.fiesta-beach.com/ or call them at 75 758 009.</t>
+          <t>The Fiesta Beach Djerba is a 4.2-rated all-inclusive hotel in Midoun, Tunisia. Facing a private beach, it offers a relaxed atmosphere with a range of amenities such as a spa, multiple pools, and a kids' club. The hotel has received over 1870 reviews and is highly praised for its animation, entertainment, and friendly staff. The Fiesta Beach Djerba is conveniently located near popular attractions and offers a wide range of activities for guests to enjoy during their stay.</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3375,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a luxurious stay, check out Sentido Djerba Beach located at Sentido Djerba Beach, Zone touristique, Midoun 4116. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel services to choose from. With a rating of 4.2, it's a must-visit spot. For more details, visit their website at https://www.ttshotels.com.tn/djerbabeach/  or call them at 75 731 200.</t>
+          <t>Sentido Djerba Beach is a four-star hotel located on the beachfront in Midoun, Tunisia (coordinates: 48.4720605, 14.0440465). The hotel offers a private beach, multiple restaurants and bars, swimming pools, and a spa. Guest rooms are described as simple and comfortable. Over 1,400 reviews give the hotel an average rating of 4.2 out of 5. The hotel is particularly praised for its animation, beach chairs, service, and all-inclusive options.</t>
         </is>
       </c>
     </row>
@@ -3502,7 +3478,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a great place to stay, check out Vincci Dar Midoun located at BP 243 zone touristique, 4116. This top-rated hotel is perfect for travelers looking for a comfortable and convenient stay. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 48.4720605, 14.0440465. For more details, visit their website at http://www.vinccihoteles.com/ or call them at 70 602 031.</t>
+          <t>Nestled in the heart of the tourist area of midoun, Tunisia, Vincci Dar Midoun is a 4-star hotel that offers an unforgettable stay to its guests. This luxurious hotel boasts 500 beautifully appointed rooms and suites, each equipped with modern amenities and stunning views of the surrounding landscape. Vincci Dar Midoun offers a wide range of services and facilities, including a restaurant and bar, a swimming pool and a fitness center. The hotel also offers a variety of activities, such as animation and entertainment programs, to keep guests entertained during their stay. With its convenient location and exceptional service, Vincci Dar Midoun is the perfect place to stay for both business and leisure travelers alike.</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3585,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a luxurious stay, check out Les Jardins de Toumana located at Les Jardins de Toumana, Zone Touristique Djerba Midoun Djerba, 4116. This top-rated residence hoteliere is perfect for those seeking a comfortable and stylish accommodation. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at http://www.toumana.com/ or call them at 75 757 187.</t>
+          <t>Welcome to Les Jardins de Toumana, an exclusive hotel with the charm of a traditional Tunisian menzel. Located in the heart of Djerba Midoun, in the South of Tunisia, this 4-star hotel offers a chic and comfortable stay. Our 2430 luxurious apartments, set around a splendid swimming pool, provide a relaxing and rejuvenating atmosphere. With its private beach, restaurant serving delicious local and international cuisine, and attentive staff, Les Jardins de Toumana is the perfect destination for an unforgettable vacation.</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3688,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a relaxing stay, check out Maison Leila located at Route Houmt Souk Midoun En Face Moosquee Fadloune Midoun, 4810. This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of categories to choose from, including Chambre d'hotes and Maison d'hotes. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 47.9183293, 13.7994911. For more details, visit their website at (website) or call them at 98 816 330.</t>
+          <t>Maison Leila is a 4.6-rated guesthouse located in Midoun, Tunisia (coordinates: 47.9183293, 13.7994911). It offers relaxed accommodation featuring a swimming pool, a spa, and a restaurant. The guesthouse specializes in providing comfortable and serene stays with suites equipped with kitchenettes. Maison Leila has received positive reviews for its cleanliness, comfort, and value for money, making it a popular choice for travelers seeking a peaceful and convenient getaway.</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3787,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated hotel, check out Welcome Meridiana Djerba. This 4.0-rated destination is perfect for those seeking a relaxing getaway. With 31 reviews praising its friendly staff and comfortable rooms, it's a must-visit spot. To get there, use these GPS coordinates: 33.8767604, 10.8766337. For more details, visit their website at https://www.google.com/maps/place/Welcome+Meridiana+Djerba/data=!4m10!3m9!1s0x13aa9783701087f5:0x5c3fcda232a44df7!5m2!4m1!1i2!8m2!3d33.827097!4d11.021035!16s%2Fg%2F11s3q_c2__!19sChIJ9YcQcIOXqhMR902kMqLNP1w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 746 140.</t>
+          <t>Discover the unforgettable Welcome Meridiana Djerba, nestled amidst the picturesque landscapes of Midoun, Djerba. This magnificent hotel offers guests a haven of tranquility and comfort with elegantly appointed rooms, a refreshing pool, and a breathtaking beach nearby. Its warm and welcoming atmosphere, complemented by impeccable service and a dedicated entertainment team, ensures a memorable stay for couples and families alike. Embark on an extraordinary vacation where every detail has been meticulously considered for your utmost relaxation and enjoyment.</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3890,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in midoun, Dar Lagune Djerba at Q2VW+2QX Dar Lagune Djerba, tezdaine, la lagune, midoun, djerba island,Tunisie,, El Haddad is a must-visit spot. This top-rated destination is perfect for Hebergement lovers. With a rating of 4.7, it's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.8038814, 11.0400685. For more details, visit their website at https://djerba--hotel.blogspot.com/ or call them at 29 333 429.</t>
+          <t>Dar Lagune Djerba is a highly-rated accommodation located at the latitude of 33.8038814 and longitude of 11.0400685. Over 25 reviews praise its exceptional breakfast and dinner menus, along with its inviting pool and close proximity to the sea.</t>
         </is>
       </c>
     </row>
@@ -4009,7 +3985,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated hotel, check out VINCCI DAR MIDOUN located at QXG5+56Q VINCCI DAR MIDOUN, Beni Maaguel. This 4.3-rated destination has 3 reviews and offers a range of hotel amenities. To get there, use these GPS coordinates: 33.7660577, 10.9564516. For more details, visit their website at https://www.google.com/maps/place/VINCCI+DAR+MIDOUN/data=!4m10!3m9!1s0x13aabdcd26f101b3:0xdecd131ab41357b8!5m2!4m1!1i2!8m2!3d33.7754716!4d10.9580947!16s%2Fg%2F11vbzn8_hx!19sChIJswHxJs29qhMRuFcTtBoTzd4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The VINCCI DAR MIDOUN is a 4.3-star hotel located in midoun, Tunisia. The hotel offers a variety of amenities, including a restaurant, bar, swimming pool, and fitness center. The hotel is also conveniently located near the beach and other attractions. The hotel's featured image is a photo of the hotel's swimming pool, which is surrounded by palm trees. The hotel's main category is Hotel, and its categories are Hotel. The hotel's latitude is 33.7660577, and its longitude is 10.9564516. The hotel's website is nan, and its phone number is nan. The hotel's owner is VINCCI DAR MIDOUN (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4092,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>In Midoun, discover Djerba Explore Park, located at Djerba Explore Park, Midoun, Djerba Midun. This top-rated theme park offers a fantastic experience with various attractions, including a crocodile farm, museum, pottery workshop, and more. With an impressive 4.6 rating, it's a must-visit for theme park enthusiasts. Open during regular hours, it's closed on specific days. For directions, use the GPS coordinates: 33.80813, 10.99228. You can also visit their website at http://www.djerbaexplore.com/ or call them at 75 745 277 for further details.</t>
+          <t>Djerba Explore Park is a theme park located in midoun, Djerba Midun with coordinates (33.80813, 10.99228). The park offers a crocodile farm, a museum, and recreations of a house, mill, and pottery workshop. Its reviews highlight its crocodilians, reptiles, and turtles.</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4191,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Mosquee Fadhloun Djerba Midoun located at Mosquee Fadhloun Djerba Midoun, Houmt Souk. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. 
-It's open during these hours: 08:00-12:00, but closed on friday. 
-To get there, use these GPS coordinates: 33.8249411, 10.9593094. 
-For more details, visit their website at https://www.google.com/maps/place/Mosquee+Fadhloun+Djerba+Midoun/data=!4m7!3m6!1s0x13aabd40b4139c8b:0x66147b51eff1c950!8m2!3d33.824789!4d10.9593005!16s%2Fg%2F1236ymc6!19sChIJi5wTtEC9qhMRUMnx71F7FGY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Mosquee Fadhloun Djerba Midoun is a historically significant mosque located in Midoun, Tunisia. It is known for its architectural beauty and its role as a tourist attraction. Its coordinates are (33.8249411, 10.9593094).</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4298,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a fun and educational day out, check out Djerba Explore Park located on Midoun, Djerba Midun. This top-rated destination is perfect for nature and history lovers and offers a range of attractions to choose from, including a crocodile farm, museum, and reconstructions of traditional Tunisian architecture. With a rating of 4.6 based on 3127 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at http://www.djerbaexplore.com/ or call them at 75 745 277.</t>
+          <t>Djerba Explore Park is a theme park located in Midoun, on the island of Djerba, in Tunisia. The park features a crocodile farm, with various species of crocodiles, turtles, and iguanas, as well as a museum and recreations of a traditional house, mill, and pottery workshop. The park also offers other attractions such as a gift shop, restaurant, and opportunities to interact with camels. It has received positive reviews from visitors, with an average rating of 4.6 out of 5. The park is located at coordinates 33.80813, 10.99228 with phone number 75 745 277.</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4405,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a fantastic place to have some fun, head over to Djerba Explore Park at Djerba Explore Park, Midoun, Djerba Midun. This top-rated theme park is perfect for theme park enthusiasts and offers a variety of activities and attractions. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at http://www.djerbaexplore.com/ or call them at 75 745 277.</t>
+          <t>Djerba Explore Park is a theme park located in Midoun, Tunisia (33.808130, 10.992280). It offers a unique blend of entertainment and education, featuring a crocodile farm, a museum, and recreations of traditional Tunisian architecture, including a house, a mill, and a pottery workshop. The park also boasts a diverse collection of animals, including reptiles, turtles, and iguanas. With its focus on heritage and nature, Djerba Explore Park is a popular destination for families and nature enthusiasts alike.</t>
         </is>
       </c>
     </row>
@@ -4541,9 +4512,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Djerba Golf Club located at Djerba Golf Club, BP 360, Zone Touristique, Midoun, Djerba, 4116. 
-This top-rated destination is perfect for Club de golf lovers and offers a range of Club de golf, Attraction touristique to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-19:00. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at http://www.djerbagolf.com.tn/ or call them at 75 745 055.</t>
+          <t>Located in Midoun, Djerba Golf Club boasts 324 reviews and a 4.3-star rating. Its main attraction is its golf course, making it a popular destination for golf enthusiasts. Situated conveniently on the island of Djerba, it provides a breathtaking view of the sea and lush palm trees. The club offers a range of services, including a hotel, restaurant, and bar, ensuring that visitors have a comfortable and memorable experience.</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4607,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Souk Midoun located at RX5R+5R4 Souk Midoun, Djerba Midun. This top-rated destination is perfect for Marche lovers and offers a range of Marche to choose from. With a rating of 3.9, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Souk+Midoun/data=!4m7!3m6!1s0x13aa97a6b710a243:0x3fdbe7aa62a61b59!8m2!3d33.8078892!4d10.9920627!16s%2Fg%2F11n04lyl1g!19sChIJQ6IQt6aXqhMRWRumYqrn2z8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Souk Midoun is a traditional market located in Midoun on the island of Djerba, Tunisia. It offers a variety of products including spices, souvenirs, textiles, and handicrafts. The market is a popular tourist destination and is known for its lively atmosphere and colorful stalls. It is located at coordinates (33.80813, 10.99228) and has received 309 reviews with an average rating of 3.9.</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4706,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun, check out DOMINO'S PUB located at DOMINO'S PUB, Zone Touristique Midoun Djerba, 4185. This top-rated destination is perfect for Bar lounge lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 42.3415574, 24.4881046. For more details, visit their website or call them at 21 773 380.</t>
+          <t>DOMINO'S PUB is a bar lounge located in the tourist area of Midoun Djerba, Tunisia. It has a rating of 4.8 based on 9 reviews and is owned by "DOMINO'S PUB (proprietaire)". The pub offers a relaxing atmosphere with a focus on providing a great experience for its customers. The exact location is at coordinates (longitude: 24.4881046, latitude: 42.3415574).</t>
         </is>
       </c>
     </row>
@@ -4840,9 +4809,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Disco salsa djerba located at Hotel diar yassine,Zone Touristique Midoun, 4126. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.7643613, 10.959501. For more details, visit their website at https://www.facebook.com/Salsa-Disco-Djerba-274706255973403/ or call them at 20 184 639.</t>
+          <t>Disco salsa djerba is a discotheque featuring modern amenities and services. It is located at Disco salsa djerba, Hotel diar yassine,Zone Touristique Midoun, 4126 with coordinates (33.7643613, 10.959501) in midoun.</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4916,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out fndq 'ldyn 4 located at fndq 'ldyn 4, Zone touristique BP 48, Midoun, Djerba 4116. This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. For more details, visit their website at https://www.aldiana.com/de-de/djerba-atlantide or call them at 75 730 622.</t>
+          <t>fndq 'ldyn 4 is a 4.5-rated all-inclusive resort located in Midoun, Djerba. It features simple restaurants, bars, an outdoor pool, and water sports. The resort is known for its lively atmosphere, friendly staff, and a wide range of entertainment options, including live shows, sports activities, and a nightclub. The resort is conveniently located near the beach and offers stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5023,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a place to relax and unwind, check out Club Med Djerba, located at Club Med Djerba, BP 160, Midoun 4116. This top-rated hotel destination is perfect for complex hotelier lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at http://www.clubmed.com/DDOC or call them at 75 750 501.</t>
+          <t>Club Med Djerba is a luxurious hotel located in Midoun, Tunisia. The hotel features a range of amenities, including stylish rooms and bungalows, a fine dining restaurant, three swimming pools, and a spa. The hotel is also known for its excellent entertainment options, including live shows and a variety of sports activities. Club Med Djerba is situated in a convenient location, just a short drive from the beach and the city center.</t>
         </is>
       </c>
     </row>
@@ -5155,9 +5122,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in Midoun and looking for a fantastic bar lounge, head to DOMINO'S PUB at Zone Touristique Midoun Djerba, 4185. 
-This top-rated spot has a 4.8 rating and is a must-visit for bar lounge enthusiasts. 
-You can contact them at 21 773 380 for more details. To get there, use these GPS coordinates: 42.3415574, 24.4881046.</t>
+          <t>DOMINO'S PUB is a 4.8-rated bar lounge located in Zone Touristique Midoun Djerba, 4185. It is open on all days of the week, and offers a variety of drinks and snacks. The bar is located at (42.3415574, 24.4881046), making it easy to find for visitors. Customers have praised the bar's friendly staff and great atmosphere.</t>
         </is>
       </c>
     </row>
@@ -5260,8 +5225,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a discotheque to enjoy, check out Disco salsa djerba located at Hotel diar yassine,Zone Touristique Midoun, 4126. 
-This top-rated spot with a 4.3 rating is perfect for discotheque lovers and offers a range of discotheque options. To get in touch, you may call them at 20 184 639.</t>
+          <t>Disco salsa djerba is a discotheque located in midoun, Tunisia (Coordinates: 33.7643613, 10.959501). It has a rating of 4.3 out of 5 based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -5368,7 +5332,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Restaurant, check out Restaurant chez Moktar-mT`m lmkhtr located at Midoun djerba, Djerba Midun 4116. This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on . To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at https://m.facebook.com/restaurantchezmoktar/%3Fti%3Das or call them at 55 512 556.</t>
+          <t>Restaurant Chez Moktar, located in Midoun, Djerba, is a popular destination for locals and tourists alike. This well-rated restaurant specializes in traditional Tunisian cuisine, offering a wide range of dishes including couscous, escalope, and tajine. Its prime location and excellent service make it a convenient and enjoyable culinary experience.</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5435,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a top-rated Restaurant, head over to Restaurant Lella Hadhria located at Restaurant Lella Hadhria, restaurant Lella Hadhria, Route du Phare direction Aghir, Tezdaine - Midoun, Midoune 4116. This popular destination serves a range of Restaurant dishes, perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open from 12:00-23:00 and closed on . To get there, use these GPS coordinates: 48.4720605, 14.0440465. For more details, call them at 98 777 888.</t>
+          <t>Restaurant Lella Hadhria is a highly-rated restaurant located in Midoun, Tunisia. It offers a wide range of dishes, including seafood, lamb, and vegetarian options. The restaurant is known for its beautiful views of the lagoon and its friendly service. It is located at (48.4720605, 14.0440465) and is open from 12:00 PM to 11:00 PM daily.</t>
         </is>
       </c>
     </row>
@@ -5574,7 +5538,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a great place to eat, check out Bach Hamba located at Bach Hamba, zone touristique Midoun Djerba, Avenue de la liberte, Djerba Midun. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at or call them at 29 814 067.</t>
+          <t>Bach Hamba is a popular restaurant located in the tourist area of Midoun Djerba, Avenue de la liberte. It offers a wide variety of dishes, including couscous, pasta, fish, and slata mechouia. The restaurant has a cozy atmosphere and friendly service. It is open from 12:00 pm to 12:00 am and closed on Sundays. Bach Hamba is a great place to enjoy a meal with friends or family.</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5645,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in midoun and craving delicious crepes, head to So Yummy, located at route midoun houmt souk Pas loin de bourgo mall Midoun, 4116. This top-rated Creperie is perfect for crepe lovers and offers a range of options to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at https://djerba--hotel.blogspot.com/p/restaurants-in-djerba.html or call them at 29 408 080.</t>
+          <t>So Yummy is a popular creperie located in Midoun. It offers a wide variety of sweet and savory crepes, milkshakes, and other beverages. The restaurant is known for its friendly service and reasonable prices. It's a great place to go for breakfast, lunch, or dinner.</t>
         </is>
       </c>
     </row>
@@ -5784,8 +5748,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a great place to eat, check out Lotophages located at RX5R+R67 Lotophages, Midoun, Djerba Midun. 
-This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website or call them at 75 730 250.</t>
+          <t>Lotophages is a popular restaurant in the heart of Midoun, Tunisia. With a rating of 4.0 out of 5 based on 113 reviews, it offers a wide range of dishes and beverages, including pizzas, sandwiches, cocktails, and coffee in a friendly and cozy atmosphere. The restaurant is located at RX5R+R67 in Midoun and is open from 6:00 AM to midnight every day of the week.</t>
         </is>
       </c>
     </row>
@@ -5892,7 +5855,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a delicious meal, check out Le Petit Navire Restaurant Poissonnerie located at Midoun, Djerba Midun. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-15:00, 18:00-22:00, but closed on mar. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://djerba--hotel.blogspot.com/p/restaurants-in-djerba.html or call them at 26 787 873.</t>
+          <t>Le Petit Navire Restaurant Poissonnerie is located in Midoun, Djerba Midun. It offers a wide range of seafood dishes and has a 4.1-star rating on Google. The restaurant is open daily except Tuesdays and has a friendly atmosphere with good service. The average price is in the middle range. The most popular dishes include: 
+- Fruits de mer (13 reviews)
+- Pates (4 reviews)
+- Gargoulette (3 reviews)
+- Poulpe (4 reviews)
+- Service (4 reviews)</t>
         </is>
       </c>
     </row>
@@ -5999,9 +5967,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Livraison food djerba located at Livraison food djerba, Midoun Center, Midoun, Djerba Midun. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Livraison de repas a domicile to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://wa.me/21628086272 or call them at 96 010 110.</t>
+          <t>Livraison food djerba is a 5 stars restaurant located in Midoun, Djerba Midun, Tunisia. It is opened 24 hours a day and has the particularity of delivering food at home. Many reviews mention its burgers.</t>
         </is>
       </c>
     </row>
@@ -6104,9 +6070,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Restaurant Rayhana located at Restaurant rayhana Djerba midoun Djerba, 4116. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at  or call them at 22 165 156.</t>
+          <t>Restaurant Rayhana is a 4.4-rated Tunisian restaurant located at the coordinates (33.8099042, 10.9723646) in midoun. It operates from 09:00 to 22:00 every day. The restaurant's menu features couscous, fish, and other Tunisian specialties. The reviews mention the friendly servers, the reasonable prices, and the lively atmosphere with music.</t>
         </is>
       </c>
     </row>
@@ -6205,9 +6169,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Restaurant lella esannefa located at Avenue de l'environnement vers zone touristique de midoun Djerba Midoun, 4116. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:30, but closed on mar. To get there, use these GPS coordinates: 33.835075394591, 10.99110705363. For more details, visit their website at  or call them at .</t>
+          <t>"Restaurant Lella Esannefa" is a popular restaurant in Midoun, Tunisia. It's located on Avenue de l'Environnement and offers a wide variety of dishes, including traditional Tunisian cuisine. The restaurant has a 4.0 rating on Google and is open from 12:00 pm to 11:30 pm every day except Tuesdays.</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6276,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Restaurant Bel-K Algerian food located at Place El Bousten en face du Soquagen Midoun, Djerba, 4116. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-15:00, 18:00-23:00, but closed on vendredi. To get there, use these GPS coordinates: 33.8099042, 10.9723646. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100092340655726%26mibextid%3DV3Yony or call them at 27 491 324.</t>
+          <t>Restaurant Bel-K Algerian Food is a popular destination in Midoun, Tunisia, with a rating of 4.1 stars from 34 reviews. It serves Algerian cuisine and is known for its chef and affordable prices. The restaurant is located at Place El Bousten en face du Soquagen Midoun and is open daily from 12:00-15:00 and 18:00-23:00, except on Fridays.</t>
         </is>
       </c>
     </row>
@@ -6417,9 +6379,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Restaurant Darkom located at R28V+Q5J Restaurant Darkom, Midoun, Djerba Midun. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website or call them at 94 692 540.</t>
+          <t>Restaurant Darkom is a restaurant located at (33.80813, 10.99228) in Midoun, Tunisia. The restaurant is highly rated, with a rating of 4.6 out of 5, and has received positive reviews for its value and customer service.</t>
         </is>
       </c>
     </row>
@@ -6522,9 +6482,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Restaurant Dar Hedia located at Rue de l'environement Midoun Djerba, 4116. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Grillades, Restaurant servant du couscous, Restaurant de specialites du Moyen-Orient, Traditional restaurant, Restaurant tunisien to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-15:00, 17:30-21:30. To get there, use these GPS coordinates: 33.835075394591, 10.99110705363. For more details, visit their website at  or call them at 54 008 168.</t>
+          <t>Restaurant Dar Hedia is a highly-rated restaurant located in Midoun, Tunisia. It specializes in Middle Eastern and Tunisian cuisine, offering both indoor and outdoor seating. The menu features a wide variety of dishes, including grilled meats, couscous, and traditional Tunisian fare. The restaurant is open for lunch and dinner, and is frequented by locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -6623,7 +6581,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a great dining experience, check out Restaurant chiklay located at Restaurant chiklay, Midoun, Djerba Midun 4116. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-21:00, but closed on marid. To get there, use these GPS coordinates: 33.8099042, 10.9723646.</t>
+          <t>Restaurant chiklay is a restaurant located in Midoun, Djerba Midun 4116. It is a great place to enjoy a delicious meal. The restaurant is open from 08:00 to 21:00, and is closed on Tuesdays. It has a rating of 5.0 on Google, based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6680,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Fast Food Sami located at RX5V+V8H Fast Food Sami, Midoun, Djerba Midun. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.google.com/maps/place/Fast+Food+Sami/data=!4m7!3m6!1s0x13aa97c4bfc467e9:0xe3a3bd8ef023118d!8m2!3d33.8096922!4d10.9933596!16s%2Fg%2F11cs5_43k1!19sChIJ6WfEv8SXqhMRjREj8I69o-M?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Nestled in the heart of Midoun, "Fast Food Sami" is a local culinary gem. Offering delicious meals, this restaurant has earned an impressive 4.8 rating from satisfied customers. Its convenient location on RX5V+V8H makes it easy to find. Open daily from 8 am to 11 pm, Fast Food Sami caters to both early risers and late-night cravings. With its inviting ambiance and friendly service, it's an excellent choice for a casual dining experience.</t>
         </is>
       </c>
     </row>
@@ -6825,9 +6783,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out RESTAURANT EL LAMMA located at RX7P+754 RESTAURANT EL LAMMA, Midoun, Djerba Midun. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 10:00-03:00. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipOH-eM_DFa9HBxUAh8PQpo804bXjwgDkdGpVkqZ=w408-h544-k-no or call them at 52 779 292.</t>
+          <t>RESTAURANT EL LAMMA, with an average rating of 4.5/5 from 2 reviews, is located in Midoun, Djerba Midun, on the coordinates (33.80813, 10.99228). It is open from 10:00 AM to 3:00 AM and offers a wide range of dining options in a cozy and inviting atmosphere.</t>
         </is>
       </c>
     </row>
@@ -6930,7 +6886,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out Chez dali located at RX4R+55C Chez dali, Midoun, Djerba Midun. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, call them at 29 620 401.</t>
+          <t>Chez Dali is a fast-food restaurant located in Midoun, on the island of Djerba, Tunisia. It is open 24 hours a day, and offers a variety of fast-food options. The restaurant is located at the coordinates (33.80813, 10.99228).</t>
         </is>
       </c>
     </row>
@@ -7029,10 +6985,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a reliable taxi service, check out Station Taxi Midoun located at RX6Q+4WQ Station Taxi Midoun, Djerba Midun. 
-This top-rated destination is perfect for those in need of a taxi and offers a range of services to choose from. 
-With a rating of 3.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.80813, 10.99228. 
-For more details, call them at 58 907 656.</t>
+          <t>Station Taxi Midoun is a taxi stand located in Midoun, Djerba, Tunisia. It is situated at the coordinates (33.80813, 10.99228). The taxi stand offers transportation services to and from the surrounding areas.</t>
         </is>
       </c>
     </row>
@@ -7135,10 +7088,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for something fun to do, check out djerba transport midoun djm located at RXCM+7JR djerba transport midoun djm, Unnamed Road, Djerba Midun. 
-This top-rated destination is perfect for Service de transport lovers and offers a range of Service de transport to choose from. 
-With a rating of 4.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at http://www.jerba-transport.com/ or call them at 26 600 973.</t>
+          <t>Djerba transport midoun djm is a transport service located in midoun (coordinates: 33.80813, 10.99228), Djerba Midun. It has a rating of 4.3 stars based on 7 reviews and offers a website for more information: http://www.jerba-transport.com/</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7191,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in midoun and looking for a reliable Service de transport, consider Station louage midoun located at RX5R+WCF Station louage midoun, Djerba Midun. This top-rated destination is perfect for Service de transport lovers and offers a range of categories to choose from. With a rating of 2.7, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 33.80813, 10.99228. For more details, visit their website at https://www.google.com/maps/place/Station+louage+midoun/data=!4m7!3m6!1s0x13aa97a9cc38ab09:0x667a2cc95e2e24a0!8m2!3d33.8103663!4d10.9905127!16s%2Fg%2F11tsdr02hn!19sChIJCas4zKmXqhMRoCQuXsksemY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 561 619.</t>
+          <t>Station louage midoun is a transport service located in midoun. Its coordinates are (33.80813, 10.99228).</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7290,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>Looking for a reliable chauffeur service in midoun? Station Service Djerba, located at RX6P+XF5 Station Service Djerba, Midoun, Djerba Midun, is a top-rated destination. With a rating of 3.3, it's a must-visit spot for those seeking a safe and comfortable ride. For more details, visit their website at https://djerba--hotel.blogspot.com/p/taxi-rank.html.</t>
+          <t>Station Service Djerba is a private driver service located in Midoun, Djerba, Tunisia. Its coordinates are (33.8087102, 10.9910264). They have a website and 3 reviews on Google Maps with a rating of 3.3.</t>
         </is>
       </c>
     </row>
